--- a/IS330 - Database & Data Analysis/DATABASE/Database_Draft_New_Project.xlsx
+++ b/IS330 - Database & Data Analysis/DATABASE/Database_Draft_New_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\REPOSITORIES\school\IS330 - Database &amp; Data Analysis\DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAF9BE-C953-46C2-9ED7-BB78AB42049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638EBBD-2784-40BE-99E0-00319E0B2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,10 +256,10 @@
     <t>What's New Scooby Doo</t>
   </si>
   <si>
-    <t>Not entirely sure how I would get the synopsis for next expisode</t>
-  </si>
-  <si>
-    <t>&lt;----- entire reason for this table is in case I want to sort output in the app by genre</t>
+    <t>Not entirely sure how I would get the synopsis for next expisode or if I needed to break it down further for a "synopID" or something</t>
+  </si>
+  <si>
+    <t>&lt;----- entire reason for this table is in case I want to sort output in the app by genre which I probably will</t>
   </si>
 </sst>
 </file>
